--- a/pred_ohlcv/54_21/2019-10-27 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 PIVX ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-9395.622799999996</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-10134.92099999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-10032.22659999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-10032.22659999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-27418.31361678998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-29792.29831678998</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-31658.29831678998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-31658.29831678998</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-31656.29831678998</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-22058.64731678998</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-23838.64731678998</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-23838.64731678998</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-25955.58931678998</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-25968.24461678998</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-25923.73941678998</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-25923.73941678998</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-25923.73941678998</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-27313.19571678998</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-25590.19571678998</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-25112.09571678998</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-24989.95051678998</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-24873.23041678999</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-24873.23041678999</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-25059.93041678999</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-22222.60711678999</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-22222.60711678999</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-22218.60711678999</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-23030.05061678999</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-25552.89351678999</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-26656.30291678998</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-26533.30291678998</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-24402.90921678998</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-26444.07211678998</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-26444.07211678998</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1182.439516789986</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-15361.03801678999</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-28940.65511678999</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-29640.65511678999</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-27096.64201678999</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-39232.57041678999</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-38519.90791678999</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-42347.07321678999</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-40679.54311679</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-40679.54311679</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-51962.32381679</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-58439.32371679</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-58439.32371679</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-58439.32371679</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 PIVX ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-9395.622799999996</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-10134.92099999999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-10032.22659999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-10032.22659999999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-27418.31361678998</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-27418.31361678998</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-29792.29831678998</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-31658.29831678998</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-31658.29831678998</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-31656.29831678998</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-31656.29831678998</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-31656.29831678998</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-15624.22071678998</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-21744.64731678998</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-22058.64731678998</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-23839.64731678998</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-23838.64731678998</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-23838.64731678998</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-23838.64731678998</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-23838.64731678998</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-22067.68701678998</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-26696.84691678998</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-26696.84691678998</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-27040.84691678998</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-25955.58931678998</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-25968.24461678998</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-25923.73941678998</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-25923.73941678998</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-25923.73941678998</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-27313.19571678998</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-25590.19571678998</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-25032.09571678998</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-25112.09571678998</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-24989.95051678998</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-24873.23041678999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-24873.23041678999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-25059.93041678999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-22222.60711678999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-22222.60711678999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-22222.60711678999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-22218.60711678999</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-22218.60711678999</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-23895.50311678999</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-23895.50311678999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-23030.05061678999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-22192.65211678999</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-25552.89351678999</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-25552.89351678999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-25552.89351678999</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-25728.51901678999</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-26656.30291678998</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-26656.30291678998</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-26533.30291678998</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-24402.90921678998</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-21972.95721678998</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-26445.07211678998</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-26443.07211678998</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-27485.64181678998</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-27484.64181678998</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-29788.72641678998</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-31760.19371678999</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-29152.03491678998</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1182.439516789986</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-15361.03801678999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-15360.03801678999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-17088.25671678999</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-17158.25671678999</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-28940.65511678999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-28940.65511678999</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-28640.65511678999</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-29640.65511678999</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-27096.64201678999</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-39232.57041678999</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-38519.90791678999</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-42347.07321678999</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-40679.54311679</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-40679.54311679</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-51962.32381679</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-58439.32371679</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-58439.32371679</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-58439.32371679</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
